--- a/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,91 +574,6 @@
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,22 +607,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -722,22 +637,22 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>4.02</v>
+        <v>4.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -756,57 +671,6 @@
       </c>
       <c r="AB2" t="n">
         <v>1.62</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -841,28 +705,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -871,16 +735,16 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U3" t="n">
         <v>4.08</v>
@@ -889,10 +753,10 @@
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y3" t="n">
         <v>1.57</v>
@@ -901,61 +765,10 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>51</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -990,22 +803,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1020,22 +833,22 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W4" t="n">
         <v>4.5</v>
@@ -1050,61 +863,10 @@
         <v>2.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>67</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
@@ -1139,34 +901,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>1.68</v>
@@ -1175,10 +937,10 @@
         <v>2.15</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
         <v>3.35</v>
@@ -1187,10 +949,10 @@
         <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" t="n">
         <v>1.5</v>
@@ -1202,58 +964,7 @@
         <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>51</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
@@ -1288,22 +999,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1330,10 +1041,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1348,61 +1059,10 @@
         <v>2.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>41</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
@@ -1437,109 +1097,58 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I7" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L7" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AA7" t="n">
         <v>1.85</v>
       </c>
       <c r="AB7" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1627,55 +1236,6 @@
       <c r="AB8" t="n">
         <v>1.55</v>
       </c>
-      <c r="AC8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1709,109 +1269,58 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="L9" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>2.67</v>
+        <v>2.35</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="X9" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>45</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -643,10 +643,10 @@
         <v>1.9</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>4.12</v>
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -833,10 +833,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>2.35</v>
@@ -851,16 +851,16 @@
         <v>1.25</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" t="n">
         <v>2.25</v>
@@ -922,7 +922,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -931,10 +931,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="S5" t="n">
         <v>2.25</v>
@@ -943,10 +943,10 @@
         <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
         <v>4.33</v>
@@ -964,7 +964,7 @@
         <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="6">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1059,10 +1059,10 @@
         <v>2.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -1097,19 +1097,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I7" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>3.05</v>
@@ -1117,15 +1117,15 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
         <v>1.53</v>
@@ -1136,19 +1136,19 @@
         <v>3.65</v>
       </c>
       <c r="X7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="8">

--- a/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
@@ -607,28 +607,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -637,22 +637,22 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -667,10 +667,10 @@
         <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -735,10 +735,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>2.6</v>
@@ -747,7 +747,7 @@
         <v>1.48</v>
       </c>
       <c r="U3" t="n">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>1.78</v>
@@ -845,10 +845,10 @@
         <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
         <v>4.33</v>
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -949,10 +949,10 @@
         <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
         <v>1.5</v>
@@ -961,10 +961,10 @@
         <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L7" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1133,16 +1133,16 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X7" t="n">
         <v>1.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AA7" t="n">
         <v>1.83</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-26.xlsx
@@ -622,13 +622,13 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -637,10 +637,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S2" t="n">
         <v>2.6</v>
@@ -723,10 +723,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -901,70 +901,70 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
       </c>
       <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.63</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="T5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.62</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.73</v>
       </c>
     </row>
     <row r="6">
@@ -1183,46 +1183,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.35</v>
       </c>
       <c r="I8" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="L8" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="X8" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Y8" t="n">
         <v>1.42</v>
@@ -1231,10 +1231,10 @@
         <v>2.45</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="9">
